--- a/PROYECTO MR/PPS-MR-HU_CS.CS.002 Generar hoja resumen.xlsx
+++ b/PROYECTO MR/PPS-MR-HU_CS.CS.002 Generar hoja resumen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DOCUMENTACION\PROYECTO MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE868B-173B-401E-B277-66EA6659E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080175F1-301F-4646-841A-FABFA30148FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="168">
   <si>
     <t>PLAN DE PRUEBAS DE SISTEMAS</t>
   </si>
@@ -696,12 +696,21 @@
   <si>
     <t xml:space="preserve"> Generar hoja resumen</t>
   </si>
+  <si>
+    <t>EJECUCIÓN</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DOCUMENTACIÓN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -766,8 +775,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +816,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1506,18 +1533,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1526,6 +1541,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1536,14 +1572,251 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1614,255 +1887,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17347,10 +17379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE48EE09-E661-402D-BA1B-A100D489DD1B}">
-  <dimension ref="A3:CG85"/>
+  <dimension ref="A3:CK85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="AB58" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="CK60" sqref="CK60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17377,302 +17409,305 @@
     <col min="58" max="67" width="10.7109375" customWidth="1"/>
     <col min="68" max="82" width="7.7109375" customWidth="1"/>
     <col min="83" max="85" width="5.140625" customWidth="1"/>
-    <col min="86" max="98" width="5.42578125" customWidth="1"/>
+    <col min="86" max="86" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="98" width="5.42578125" customWidth="1"/>
     <col min="99" max="107" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="155" t="s">
+      <c r="H3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="155"/>
-      <c r="AL3" s="155"/>
-      <c r="AM3" s="155"/>
-      <c r="AN3" s="155"/>
-      <c r="AO3" s="155"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
       <c r="AP3" s="38"/>
     </row>
     <row r="4" spans="1:42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="155"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="155"/>
-      <c r="AF4" s="155"/>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="155"/>
-      <c r="AL4" s="155"/>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
       <c r="AP4" s="38"/>
     </row>
     <row r="5" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:42" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="156"/>
-      <c r="W7" s="156"/>
-      <c r="X7" s="156"/>
-      <c r="Y7" s="156"/>
-      <c r="Z7" s="156"/>
-      <c r="AA7" s="156"/>
-      <c r="AB7" s="156"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="156"/>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="156"/>
-      <c r="AI7" s="156"/>
-      <c r="AJ7" s="156"/>
-      <c r="AK7" s="156"/>
-      <c r="AL7" s="156"/>
-      <c r="AM7" s="156"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
       <c r="AP7" s="50"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="157" t="s">
+      <c r="G8" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="158"/>
-      <c r="I8" s="157" t="s">
+      <c r="H8" s="93"/>
+      <c r="I8" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="158"/>
-      <c r="K8" s="157" t="s">
+      <c r="J8" s="93"/>
+      <c r="K8" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="159"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="157" t="s">
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="159"/>
-      <c r="AI8" s="159"/>
-      <c r="AJ8" s="159"/>
-      <c r="AK8" s="159"/>
-      <c r="AL8" s="159"/>
-      <c r="AM8" s="159"/>
-      <c r="AN8" s="159"/>
-      <c r="AO8" s="158"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="93"/>
       <c r="AP8" s="51"/>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="174">
+      <c r="G9" s="107">
         <v>45331</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="169" t="s">
+      <c r="H9" s="108"/>
+      <c r="I9" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="171" t="s">
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="AG9" s="172"/>
-      <c r="AH9" s="172"/>
-      <c r="AI9" s="172"/>
-      <c r="AJ9" s="172"/>
-      <c r="AK9" s="172"/>
-      <c r="AL9" s="172"/>
-      <c r="AM9" s="172"/>
-      <c r="AN9" s="172"/>
-      <c r="AO9" s="173"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="112"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="113"/>
       <c r="AP9" s="40"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="174">
+      <c r="G10" s="107">
         <v>45334</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="169" t="s">
+      <c r="H10" s="108"/>
+      <c r="I10" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171" t="s">
+      <c r="J10" s="110"/>
+      <c r="K10" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="171" t="s">
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="172"/>
-      <c r="AI10" s="172"/>
-      <c r="AJ10" s="172"/>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="172"/>
-      <c r="AM10" s="172"/>
-      <c r="AN10" s="172"/>
-      <c r="AO10" s="173"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="112"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="112"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="113"/>
       <c r="AP10" s="48"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="106"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="77"/>
       <c r="AP11" s="48"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17720,236 +17755,236 @@
     </row>
     <row r="15" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110" t="s">
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="112"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="143"/>
+      <c r="AL15" s="143"/>
+      <c r="AM15" s="143"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="144"/>
       <c r="AP15" s="40"/>
     </row>
     <row r="16" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="160" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="161"/>
-      <c r="AJ16" s="161"/>
-      <c r="AK16" s="161"/>
-      <c r="AL16" s="161"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="161"/>
-      <c r="AO16" s="162"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="100"/>
       <c r="AP16" s="40"/>
     </row>
     <row r="17" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="164"/>
-      <c r="AH17" s="164"/>
-      <c r="AI17" s="164"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="164"/>
-      <c r="AL17" s="164"/>
-      <c r="AM17" s="164"/>
-      <c r="AN17" s="164"/>
-      <c r="AO17" s="165"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="103"/>
       <c r="AP17" s="40"/>
     </row>
     <row r="18" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="167"/>
-      <c r="R18" s="167"/>
-      <c r="S18" s="167"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="167"/>
-      <c r="W18" s="167"/>
-      <c r="X18" s="167"/>
-      <c r="Y18" s="167"/>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="167"/>
-      <c r="AD18" s="167"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="167"/>
-      <c r="AG18" s="167"/>
-      <c r="AH18" s="167"/>
-      <c r="AI18" s="167"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="167"/>
-      <c r="AL18" s="167"/>
-      <c r="AM18" s="167"/>
-      <c r="AN18" s="167"/>
-      <c r="AO18" s="168"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="105"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="106"/>
       <c r="AP18" s="48"/>
     </row>
     <row r="19" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="150"/>
-      <c r="S19" s="150"/>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
-      <c r="X19" s="150"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="150"/>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="150"/>
-      <c r="AD19" s="150"/>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="150"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="150"/>
-      <c r="AJ19" s="150"/>
-      <c r="AK19" s="150"/>
-      <c r="AL19" s="150"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="150"/>
-      <c r="AO19" s="151"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="85"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="86"/>
       <c r="AP19" s="48"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
@@ -18042,34 +18077,34 @@
       <c r="G22" s="30"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="152" t="s">
+      <c r="J22" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="153"/>
-      <c r="AH22" s="153"/>
-      <c r="AI22" s="154"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="89"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -18177,274 +18212,274 @@
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="143" t="s">
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="144"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="144"/>
-      <c r="AJ27" s="144"/>
-      <c r="AK27" s="144"/>
-      <c r="AL27" s="144"/>
-      <c r="AM27" s="144"/>
-      <c r="AN27" s="144"/>
-      <c r="AO27" s="145"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="74"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="104" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="114"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="114"/>
-      <c r="AA28" s="114"/>
-      <c r="AB28" s="114"/>
-      <c r="AC28" s="114"/>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="114"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="114"/>
-      <c r="AJ28" s="114"/>
-      <c r="AK28" s="114"/>
-      <c r="AL28" s="114"/>
-      <c r="AM28" s="114"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="115"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="80"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="114"/>
-      <c r="AL29" s="114"/>
-      <c r="AM29" s="114"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="115"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="80"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="114"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="114"/>
-      <c r="AL30" s="114"/>
-      <c r="AM30" s="114"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="115"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="80"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="114"/>
-      <c r="AM31" s="114"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="115"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="80"/>
     </row>
     <row r="32" spans="1:42" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="120"/>
-      <c r="AL32" s="120"/>
-      <c r="AM32" s="120"/>
-      <c r="AN32" s="120"/>
-      <c r="AO32" s="121"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="119"/>
     </row>
-    <row r="33" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:88" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -18486,7 +18521,7 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
     </row>
-    <row r="34" spans="1:85" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
@@ -18538,7 +18573,7 @@
       <c r="AL34" s="6"/>
       <c r="AN34" s="5"/>
     </row>
-    <row r="35" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -18580,7 +18615,7 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
     </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -18622,7 +18657,7 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
     </row>
-    <row r="37" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:88" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18" t="s">
         <v>32</v>
       </c>
@@ -18666,26 +18701,26 @@
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
     </row>
-    <row r="38" spans="1:85" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:88" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="92" t="s">
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="93"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="125" t="s">
+      <c r="I38" s="124"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="126"/>
-      <c r="M38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="128"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -18715,27 +18750,27 @@
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
     </row>
-    <row r="39" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="131">
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="132">
         <v>0</v>
       </c>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="134" t="e">
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="135" t="e">
         <f>ROUND((H39/H42)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="135"/>
-      <c r="M39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="137"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -18765,27 +18800,27 @@
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
     </row>
-    <row r="40" spans="1:85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="74">
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="156">
         <v>0</v>
       </c>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="77" t="e">
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="159" t="e">
         <f>ROUND((H40/H42)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="78"/>
-      <c r="M40" s="79"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="161"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -18815,27 +18850,27 @@
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
     </row>
-    <row r="41" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83">
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="165">
         <v>0</v>
       </c>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="86" t="e">
+      <c r="I41" s="166"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="168" t="e">
         <f>ROUND((H41/H42)*100,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
+      <c r="L41" s="169"/>
+      <c r="M41" s="170"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -18865,28 +18900,28 @@
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
     </row>
-    <row r="42" spans="1:85" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92">
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="123">
         <f>SUM(H39:J41)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="93"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="95" t="e">
+      <c r="I42" s="124"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="148" t="e">
         <f>SUM(K39:M41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L42" s="96"/>
-      <c r="M42" s="97"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="150"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -18916,7 +18951,7 @@
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -18958,7 +18993,7 @@
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:88" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -19000,7 +19035,7 @@
       <c r="AN44" s="5"/>
       <c r="AO44" s="5"/>
     </row>
-    <row r="45" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:88" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>40</v>
       </c>
@@ -19044,339 +19079,357 @@
       <c r="AN45" s="5"/>
       <c r="AO45" s="5"/>
     </row>
-    <row r="46" spans="1:85" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="99" t="s">
+    <row r="46" spans="1:88" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="98" t="s">
+      <c r="C46" s="146"/>
+      <c r="D46" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="98" t="s">
+      <c r="E46" s="146"/>
+      <c r="F46" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="98"/>
-      <c r="H46" s="100" t="s">
+      <c r="G46" s="147"/>
+      <c r="H46" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="98" t="s">
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98" t="s">
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98" t="s">
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98" t="s">
+      <c r="R46" s="147"/>
+      <c r="S46" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="T46" s="98"/>
-      <c r="U46" s="98"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="98" t="s">
+      <c r="T46" s="147"/>
+      <c r="U46" s="147"/>
+      <c r="V46" s="147"/>
+      <c r="W46" s="147"/>
+      <c r="X46" s="147"/>
+      <c r="Y46" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="Z46" s="98"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="98"/>
-      <c r="AC46" s="98"/>
-      <c r="AD46" s="98"/>
-      <c r="AE46" s="98"/>
-      <c r="AF46" s="98"/>
-      <c r="AG46" s="98"/>
-      <c r="AH46" s="98"/>
-      <c r="AI46" s="98"/>
-      <c r="AJ46" s="98"/>
-      <c r="AK46" s="98"/>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="98"/>
-      <c r="AO46" s="98"/>
+      <c r="Z46" s="147"/>
+      <c r="AA46" s="147"/>
+      <c r="AB46" s="147"/>
+      <c r="AC46" s="147"/>
+      <c r="AD46" s="147"/>
+      <c r="AE46" s="147"/>
+      <c r="AF46" s="147"/>
+      <c r="AG46" s="147"/>
+      <c r="AH46" s="147"/>
+      <c r="AI46" s="147"/>
+      <c r="AJ46" s="147"/>
+      <c r="AK46" s="147"/>
+      <c r="AL46" s="147"/>
+      <c r="AM46" s="147"/>
+      <c r="AN46" s="147"/>
+      <c r="AO46" s="147"/>
       <c r="AP46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AQ46" s="98" t="s">
+      <c r="AQ46" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="AR46" s="98"/>
-      <c r="AS46" s="98"/>
-      <c r="AT46" s="98"/>
-      <c r="AU46" s="98"/>
-      <c r="AV46" s="98"/>
-      <c r="AW46" s="98"/>
-      <c r="AX46" s="98"/>
-      <c r="AY46" s="98" t="s">
+      <c r="AR46" s="147"/>
+      <c r="AS46" s="147"/>
+      <c r="AT46" s="147"/>
+      <c r="AU46" s="147"/>
+      <c r="AV46" s="147"/>
+      <c r="AW46" s="147"/>
+      <c r="AX46" s="147"/>
+      <c r="AY46" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="AZ46" s="98"/>
-      <c r="BA46" s="98"/>
-      <c r="BB46" s="98"/>
-      <c r="BC46" s="98"/>
-      <c r="BD46" s="98"/>
-      <c r="BE46" s="98"/>
-      <c r="BF46" s="98" t="s">
+      <c r="AZ46" s="147"/>
+      <c r="BA46" s="147"/>
+      <c r="BB46" s="147"/>
+      <c r="BC46" s="147"/>
+      <c r="BD46" s="147"/>
+      <c r="BE46" s="147"/>
+      <c r="BF46" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="BG46" s="98"/>
-      <c r="BH46" s="98"/>
-      <c r="BI46" s="98"/>
-      <c r="BJ46" s="98"/>
-      <c r="BK46" s="98"/>
-      <c r="BL46" s="98"/>
-      <c r="BM46" s="98"/>
-      <c r="BN46" s="98"/>
-      <c r="BO46" s="98"/>
-      <c r="BP46" s="98" t="s">
+      <c r="BG46" s="147"/>
+      <c r="BH46" s="147"/>
+      <c r="BI46" s="147"/>
+      <c r="BJ46" s="147"/>
+      <c r="BK46" s="147"/>
+      <c r="BL46" s="147"/>
+      <c r="BM46" s="147"/>
+      <c r="BN46" s="147"/>
+      <c r="BO46" s="147"/>
+      <c r="BP46" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="BQ46" s="98"/>
-      <c r="BR46" s="98"/>
-      <c r="BS46" s="98"/>
-      <c r="BT46" s="98"/>
-      <c r="BU46" s="98"/>
-      <c r="BV46" s="98"/>
-      <c r="BW46" s="98"/>
-      <c r="BX46" s="98"/>
-      <c r="BY46" s="98"/>
-      <c r="BZ46" s="98"/>
-      <c r="CA46" s="98"/>
-      <c r="CB46" s="98"/>
-      <c r="CC46" s="98"/>
-      <c r="CD46" s="98"/>
-      <c r="CE46" s="98" t="s">
+      <c r="BQ46" s="147"/>
+      <c r="BR46" s="147"/>
+      <c r="BS46" s="147"/>
+      <c r="BT46" s="147"/>
+      <c r="BU46" s="147"/>
+      <c r="BV46" s="147"/>
+      <c r="BW46" s="147"/>
+      <c r="BX46" s="147"/>
+      <c r="BY46" s="147"/>
+      <c r="BZ46" s="147"/>
+      <c r="CA46" s="147"/>
+      <c r="CB46" s="147"/>
+      <c r="CC46" s="147"/>
+      <c r="CD46" s="147"/>
+      <c r="CE46" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="CF46" s="98"/>
-      <c r="CG46" s="101"/>
+      <c r="CF46" s="147"/>
+      <c r="CG46" s="174"/>
+      <c r="CH46" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="CI46" s="175" t="s">
+        <v>165</v>
+      </c>
+      <c r="CJ46" s="175" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="47" spans="1:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="56" t="s">
+    <row r="47" spans="1:88" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59" t="s">
+      <c r="E47" s="62"/>
+      <c r="F47" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58">
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62">
         <v>1</v>
       </c>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58">
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62">
         <v>1</v>
       </c>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58">
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62">
         <v>3</v>
       </c>
-      <c r="R47" s="58"/>
-      <c r="S47" s="60" t="s">
+      <c r="R47" s="62"/>
+      <c r="S47" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T47" s="61" t="s">
+      <c r="T47" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U47" s="61" t="s">
+      <c r="U47" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V47" s="61" t="s">
+      <c r="V47" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W47" s="61" t="s">
+      <c r="W47" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X47" s="62" t="s">
+      <c r="X47" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y47" s="63" t="s">
+      <c r="Y47" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="Z47" s="64"/>
-      <c r="AA47" s="64"/>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="64"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="64"/>
-      <c r="AF47" s="64"/>
-      <c r="AG47" s="64"/>
-      <c r="AH47" s="64"/>
-      <c r="AI47" s="64"/>
-      <c r="AJ47" s="64"/>
-      <c r="AK47" s="64"/>
-      <c r="AL47" s="64"/>
-      <c r="AM47" s="64"/>
-      <c r="AN47" s="64"/>
-      <c r="AO47" s="65"/>
+      <c r="Z47" s="67"/>
+      <c r="AA47" s="67"/>
+      <c r="AB47" s="67"/>
+      <c r="AC47" s="67"/>
+      <c r="AD47" s="67"/>
+      <c r="AE47" s="67"/>
+      <c r="AF47" s="67"/>
+      <c r="AG47" s="67"/>
+      <c r="AH47" s="67"/>
+      <c r="AI47" s="67"/>
+      <c r="AJ47" s="67"/>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="67"/>
+      <c r="AM47" s="67"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="68"/>
       <c r="AP47" s="47" t="s">
         <v>62</v>
       </c>
       <c r="AQ47" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="AR47" s="61" t="s">
+      <c r="AR47" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AS47" s="61" t="s">
+      <c r="AS47" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AT47" s="61" t="s">
+      <c r="AT47" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AU47" s="61" t="s">
+      <c r="AU47" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AV47" s="61" t="s">
+      <c r="AV47" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AW47" s="61" t="s">
+      <c r="AW47" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AX47" s="62" t="s">
+      <c r="AX47" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="AY47" s="60" t="s">
+      <c r="AY47" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ47" s="61"/>
-      <c r="BA47" s="61"/>
-      <c r="BB47" s="61"/>
-      <c r="BC47" s="61"/>
-      <c r="BD47" s="61"/>
-      <c r="BE47" s="62"/>
-      <c r="BF47" s="66" t="s">
+      <c r="AZ47" s="57"/>
+      <c r="BA47" s="57"/>
+      <c r="BB47" s="57"/>
+      <c r="BC47" s="57"/>
+      <c r="BD47" s="57"/>
+      <c r="BE47" s="58"/>
+      <c r="BF47" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="BG47" s="67"/>
-      <c r="BH47" s="67"/>
-      <c r="BI47" s="67"/>
-      <c r="BJ47" s="67"/>
-      <c r="BK47" s="67"/>
-      <c r="BL47" s="67"/>
-      <c r="BM47" s="67"/>
-      <c r="BN47" s="67"/>
-      <c r="BO47" s="67"/>
-      <c r="BP47" s="66" t="s">
+      <c r="BG47" s="60"/>
+      <c r="BH47" s="60"/>
+      <c r="BI47" s="60"/>
+      <c r="BJ47" s="60"/>
+      <c r="BK47" s="60"/>
+      <c r="BL47" s="60"/>
+      <c r="BM47" s="60"/>
+      <c r="BN47" s="60"/>
+      <c r="BO47" s="60"/>
+      <c r="BP47" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BQ47" s="67"/>
-      <c r="BR47" s="67"/>
-      <c r="BS47" s="67"/>
-      <c r="BT47" s="67"/>
-      <c r="BU47" s="67"/>
-      <c r="BV47" s="67"/>
-      <c r="BW47" s="67"/>
-      <c r="BX47" s="67"/>
-      <c r="BY47" s="67"/>
-      <c r="BZ47" s="67"/>
-      <c r="CA47" s="67"/>
-      <c r="CB47" s="67"/>
-      <c r="CC47" s="67"/>
-      <c r="CD47" s="67"/>
-      <c r="CE47" s="59" t="s">
+      <c r="BQ47" s="60"/>
+      <c r="BR47" s="60"/>
+      <c r="BS47" s="60"/>
+      <c r="BT47" s="60"/>
+      <c r="BU47" s="60"/>
+      <c r="BV47" s="60"/>
+      <c r="BW47" s="60"/>
+      <c r="BX47" s="60"/>
+      <c r="BY47" s="60"/>
+      <c r="BZ47" s="60"/>
+      <c r="CA47" s="60"/>
+      <c r="CB47" s="60"/>
+      <c r="CC47" s="60"/>
+      <c r="CD47" s="60"/>
+      <c r="CE47" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF47" s="58" t="s">
+      <c r="CF47" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG47" s="68" t="s">
+      <c r="CG47" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH47" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI47" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ47" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="48" spans="1:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="56" t="s">
+    <row r="48" spans="1:88" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58" t="s">
+      <c r="C48" s="65"/>
+      <c r="D48" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="59" t="s">
+      <c r="E48" s="62"/>
+      <c r="F48" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58">
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62">
         <v>1</v>
       </c>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58">
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62">
         <v>1</v>
       </c>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58">
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62">
         <v>3</v>
       </c>
-      <c r="R48" s="58"/>
-      <c r="S48" s="60" t="s">
+      <c r="R48" s="62"/>
+      <c r="S48" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T48" s="61" t="s">
+      <c r="T48" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U48" s="61" t="s">
+      <c r="U48" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V48" s="61" t="s">
+      <c r="V48" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W48" s="61" t="s">
+      <c r="W48" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X48" s="62" t="s">
+      <c r="X48" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y48" s="63" t="s">
+      <c r="Y48" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="Z48" s="64"/>
-      <c r="AA48" s="64"/>
-      <c r="AB48" s="64"/>
-      <c r="AC48" s="64"/>
-      <c r="AD48" s="64"/>
-      <c r="AE48" s="64"/>
-      <c r="AF48" s="64"/>
-      <c r="AG48" s="64"/>
-      <c r="AH48" s="64"/>
-      <c r="AI48" s="64"/>
-      <c r="AJ48" s="64"/>
-      <c r="AK48" s="64"/>
-      <c r="AL48" s="64"/>
-      <c r="AM48" s="64"/>
-      <c r="AN48" s="64"/>
-      <c r="AO48" s="65"/>
+      <c r="Z48" s="67"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="67"/>
+      <c r="AD48" s="67"/>
+      <c r="AE48" s="67"/>
+      <c r="AF48" s="67"/>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="67"/>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="68"/>
       <c r="AP48" s="47" t="s">
         <v>62</v>
       </c>
@@ -19404,125 +19457,134 @@
       <c r="AX48" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY48" s="60" t="s">
+      <c r="AY48" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ48" s="61"/>
-      <c r="BA48" s="61"/>
-      <c r="BB48" s="61"/>
-      <c r="BC48" s="61"/>
-      <c r="BD48" s="61"/>
-      <c r="BE48" s="62"/>
-      <c r="BF48" s="66" t="s">
+      <c r="AZ48" s="57"/>
+      <c r="BA48" s="57"/>
+      <c r="BB48" s="57"/>
+      <c r="BC48" s="57"/>
+      <c r="BD48" s="57"/>
+      <c r="BE48" s="58"/>
+      <c r="BF48" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="BG48" s="67"/>
-      <c r="BH48" s="67"/>
-      <c r="BI48" s="67"/>
-      <c r="BJ48" s="67"/>
-      <c r="BK48" s="67"/>
-      <c r="BL48" s="67"/>
-      <c r="BM48" s="67"/>
-      <c r="BN48" s="67"/>
-      <c r="BO48" s="67"/>
-      <c r="BP48" s="66" t="s">
+      <c r="BG48" s="60"/>
+      <c r="BH48" s="60"/>
+      <c r="BI48" s="60"/>
+      <c r="BJ48" s="60"/>
+      <c r="BK48" s="60"/>
+      <c r="BL48" s="60"/>
+      <c r="BM48" s="60"/>
+      <c r="BN48" s="60"/>
+      <c r="BO48" s="60"/>
+      <c r="BP48" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BQ48" s="67"/>
-      <c r="BR48" s="67"/>
-      <c r="BS48" s="67"/>
-      <c r="BT48" s="67"/>
-      <c r="BU48" s="67"/>
-      <c r="BV48" s="67"/>
-      <c r="BW48" s="67"/>
-      <c r="BX48" s="67"/>
-      <c r="BY48" s="67"/>
-      <c r="BZ48" s="67"/>
-      <c r="CA48" s="67"/>
-      <c r="CB48" s="67"/>
-      <c r="CC48" s="67"/>
-      <c r="CD48" s="67"/>
-      <c r="CE48" s="59" t="s">
+      <c r="BQ48" s="60"/>
+      <c r="BR48" s="60"/>
+      <c r="BS48" s="60"/>
+      <c r="BT48" s="60"/>
+      <c r="BU48" s="60"/>
+      <c r="BV48" s="60"/>
+      <c r="BW48" s="60"/>
+      <c r="BX48" s="60"/>
+      <c r="BY48" s="60"/>
+      <c r="BZ48" s="60"/>
+      <c r="CA48" s="60"/>
+      <c r="CB48" s="60"/>
+      <c r="CC48" s="60"/>
+      <c r="CD48" s="60"/>
+      <c r="CE48" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF48" s="58" t="s">
+      <c r="CF48" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG48" s="68" t="s">
+      <c r="CG48" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH48" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI48" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ48" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="49" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="56" t="s">
+    <row r="49" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59" t="s">
+      <c r="E49" s="62"/>
+      <c r="F49" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58">
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62">
         <v>1</v>
       </c>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58">
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62">
         <v>1</v>
       </c>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58">
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62">
         <v>3</v>
       </c>
-      <c r="R49" s="58"/>
-      <c r="S49" s="60" t="s">
+      <c r="R49" s="62"/>
+      <c r="S49" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T49" s="61" t="s">
+      <c r="T49" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U49" s="61" t="s">
+      <c r="U49" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V49" s="61" t="s">
+      <c r="V49" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W49" s="61" t="s">
+      <c r="W49" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X49" s="62" t="s">
+      <c r="X49" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y49" s="63" t="s">
+      <c r="Y49" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="Z49" s="64"/>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="64"/>
-      <c r="AC49" s="64"/>
-      <c r="AD49" s="64"/>
-      <c r="AE49" s="64"/>
-      <c r="AF49" s="64"/>
-      <c r="AG49" s="64"/>
-      <c r="AH49" s="64"/>
-      <c r="AI49" s="64"/>
-      <c r="AJ49" s="64"/>
-      <c r="AK49" s="64"/>
-      <c r="AL49" s="64"/>
-      <c r="AM49" s="64"/>
-      <c r="AN49" s="64"/>
-      <c r="AO49" s="65"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="67"/>
+      <c r="AE49" s="67"/>
+      <c r="AF49" s="67"/>
+      <c r="AG49" s="67"/>
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="68"/>
       <c r="AP49" s="47" t="s">
         <v>62</v>
       </c>
@@ -19550,125 +19612,134 @@
       <c r="AX49" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY49" s="60" t="s">
+      <c r="AY49" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ49" s="61"/>
-      <c r="BA49" s="61"/>
-      <c r="BB49" s="61"/>
-      <c r="BC49" s="61"/>
-      <c r="BD49" s="61"/>
-      <c r="BE49" s="62"/>
-      <c r="BF49" s="66" t="s">
+      <c r="AZ49" s="57"/>
+      <c r="BA49" s="57"/>
+      <c r="BB49" s="57"/>
+      <c r="BC49" s="57"/>
+      <c r="BD49" s="57"/>
+      <c r="BE49" s="58"/>
+      <c r="BF49" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="BG49" s="67"/>
-      <c r="BH49" s="67"/>
-      <c r="BI49" s="67"/>
-      <c r="BJ49" s="67"/>
-      <c r="BK49" s="67"/>
-      <c r="BL49" s="67"/>
-      <c r="BM49" s="67"/>
-      <c r="BN49" s="67"/>
-      <c r="BO49" s="67"/>
-      <c r="BP49" s="66" t="s">
+      <c r="BG49" s="60"/>
+      <c r="BH49" s="60"/>
+      <c r="BI49" s="60"/>
+      <c r="BJ49" s="60"/>
+      <c r="BK49" s="60"/>
+      <c r="BL49" s="60"/>
+      <c r="BM49" s="60"/>
+      <c r="BN49" s="60"/>
+      <c r="BO49" s="60"/>
+      <c r="BP49" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BQ49" s="67"/>
-      <c r="BR49" s="67"/>
-      <c r="BS49" s="67"/>
-      <c r="BT49" s="67"/>
-      <c r="BU49" s="67"/>
-      <c r="BV49" s="67"/>
-      <c r="BW49" s="67"/>
-      <c r="BX49" s="67"/>
-      <c r="BY49" s="67"/>
-      <c r="BZ49" s="67"/>
-      <c r="CA49" s="67"/>
-      <c r="CB49" s="67"/>
-      <c r="CC49" s="67"/>
-      <c r="CD49" s="67"/>
-      <c r="CE49" s="59" t="s">
+      <c r="BQ49" s="60"/>
+      <c r="BR49" s="60"/>
+      <c r="BS49" s="60"/>
+      <c r="BT49" s="60"/>
+      <c r="BU49" s="60"/>
+      <c r="BV49" s="60"/>
+      <c r="BW49" s="60"/>
+      <c r="BX49" s="60"/>
+      <c r="BY49" s="60"/>
+      <c r="BZ49" s="60"/>
+      <c r="CA49" s="60"/>
+      <c r="CB49" s="60"/>
+      <c r="CC49" s="60"/>
+      <c r="CD49" s="60"/>
+      <c r="CE49" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF49" s="58" t="s">
+      <c r="CF49" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG49" s="68" t="s">
+      <c r="CG49" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH49" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI49" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ49" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="50" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="56" t="s">
+    <row r="50" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="59" t="s">
+      <c r="E50" s="62"/>
+      <c r="F50" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58">
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62">
         <v>1</v>
       </c>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58">
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62">
         <v>1</v>
       </c>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58">
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62">
         <v>3</v>
       </c>
-      <c r="R50" s="58"/>
-      <c r="S50" s="60" t="s">
+      <c r="R50" s="62"/>
+      <c r="S50" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T50" s="61" t="s">
+      <c r="T50" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U50" s="61" t="s">
+      <c r="U50" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V50" s="61" t="s">
+      <c r="V50" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W50" s="61" t="s">
+      <c r="W50" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X50" s="62" t="s">
+      <c r="X50" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y50" s="63" t="s">
+      <c r="Y50" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="64"/>
-      <c r="AE50" s="64"/>
-      <c r="AF50" s="64"/>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="64"/>
-      <c r="AI50" s="64"/>
-      <c r="AJ50" s="64"/>
-      <c r="AK50" s="64"/>
-      <c r="AL50" s="64"/>
-      <c r="AM50" s="64"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="65"/>
+      <c r="Z50" s="67"/>
+      <c r="AA50" s="67"/>
+      <c r="AB50" s="67"/>
+      <c r="AC50" s="67"/>
+      <c r="AD50" s="67"/>
+      <c r="AE50" s="67"/>
+      <c r="AF50" s="67"/>
+      <c r="AG50" s="67"/>
+      <c r="AH50" s="67"/>
+      <c r="AI50" s="67"/>
+      <c r="AJ50" s="67"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="67"/>
+      <c r="AM50" s="67"/>
+      <c r="AN50" s="67"/>
+      <c r="AO50" s="68"/>
       <c r="AP50" s="47" t="s">
         <v>62</v>
       </c>
@@ -19696,125 +19767,134 @@
       <c r="AX50" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY50" s="60" t="s">
+      <c r="AY50" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ50" s="61"/>
-      <c r="BA50" s="61"/>
-      <c r="BB50" s="61"/>
-      <c r="BC50" s="61"/>
-      <c r="BD50" s="61"/>
-      <c r="BE50" s="62"/>
-      <c r="BF50" s="66" t="s">
+      <c r="AZ50" s="57"/>
+      <c r="BA50" s="57"/>
+      <c r="BB50" s="57"/>
+      <c r="BC50" s="57"/>
+      <c r="BD50" s="57"/>
+      <c r="BE50" s="58"/>
+      <c r="BF50" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="BG50" s="67"/>
-      <c r="BH50" s="67"/>
-      <c r="BI50" s="67"/>
-      <c r="BJ50" s="67"/>
-      <c r="BK50" s="67"/>
-      <c r="BL50" s="67"/>
-      <c r="BM50" s="67"/>
-      <c r="BN50" s="67"/>
-      <c r="BO50" s="67"/>
-      <c r="BP50" s="66" t="s">
+      <c r="BG50" s="60"/>
+      <c r="BH50" s="60"/>
+      <c r="BI50" s="60"/>
+      <c r="BJ50" s="60"/>
+      <c r="BK50" s="60"/>
+      <c r="BL50" s="60"/>
+      <c r="BM50" s="60"/>
+      <c r="BN50" s="60"/>
+      <c r="BO50" s="60"/>
+      <c r="BP50" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BQ50" s="67"/>
-      <c r="BR50" s="67"/>
-      <c r="BS50" s="67"/>
-      <c r="BT50" s="67"/>
-      <c r="BU50" s="67"/>
-      <c r="BV50" s="67"/>
-      <c r="BW50" s="67"/>
-      <c r="BX50" s="67"/>
-      <c r="BY50" s="67"/>
-      <c r="BZ50" s="67"/>
-      <c r="CA50" s="67"/>
-      <c r="CB50" s="67"/>
-      <c r="CC50" s="67"/>
-      <c r="CD50" s="67"/>
-      <c r="CE50" s="59" t="s">
+      <c r="BQ50" s="60"/>
+      <c r="BR50" s="60"/>
+      <c r="BS50" s="60"/>
+      <c r="BT50" s="60"/>
+      <c r="BU50" s="60"/>
+      <c r="BV50" s="60"/>
+      <c r="BW50" s="60"/>
+      <c r="BX50" s="60"/>
+      <c r="BY50" s="60"/>
+      <c r="BZ50" s="60"/>
+      <c r="CA50" s="60"/>
+      <c r="CB50" s="60"/>
+      <c r="CC50" s="60"/>
+      <c r="CD50" s="60"/>
+      <c r="CE50" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF50" s="58" t="s">
+      <c r="CF50" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG50" s="68" t="s">
+      <c r="CG50" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH50" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI50" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ50" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="51" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="56" t="s">
+    <row r="51" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58" t="s">
+      <c r="C51" s="65"/>
+      <c r="D51" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="59" t="s">
+      <c r="E51" s="62"/>
+      <c r="F51" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58">
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62">
         <v>1</v>
       </c>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58">
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62">
         <v>1</v>
       </c>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58">
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62">
         <v>3</v>
       </c>
-      <c r="R51" s="58"/>
-      <c r="S51" s="60" t="s">
+      <c r="R51" s="62"/>
+      <c r="S51" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T51" s="61" t="s">
+      <c r="T51" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U51" s="61" t="s">
+      <c r="U51" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V51" s="61" t="s">
+      <c r="V51" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W51" s="61" t="s">
+      <c r="W51" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X51" s="62" t="s">
+      <c r="X51" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y51" s="63" t="s">
+      <c r="Y51" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="64"/>
-      <c r="AI51" s="64"/>
-      <c r="AJ51" s="64"/>
-      <c r="AK51" s="64"/>
-      <c r="AL51" s="64"/>
-      <c r="AM51" s="64"/>
-      <c r="AN51" s="64"/>
-      <c r="AO51" s="65"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="67"/>
+      <c r="AE51" s="67"/>
+      <c r="AF51" s="67"/>
+      <c r="AG51" s="67"/>
+      <c r="AH51" s="67"/>
+      <c r="AI51" s="67"/>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="67"/>
+      <c r="AN51" s="67"/>
+      <c r="AO51" s="68"/>
       <c r="AP51" s="47" t="s">
         <v>62</v>
       </c>
@@ -19842,125 +19922,134 @@
       <c r="AX51" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY51" s="60" t="s">
+      <c r="AY51" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ51" s="61"/>
-      <c r="BA51" s="61"/>
-      <c r="BB51" s="61"/>
-      <c r="BC51" s="61"/>
-      <c r="BD51" s="61"/>
-      <c r="BE51" s="62"/>
-      <c r="BF51" s="66" t="s">
+      <c r="AZ51" s="57"/>
+      <c r="BA51" s="57"/>
+      <c r="BB51" s="57"/>
+      <c r="BC51" s="57"/>
+      <c r="BD51" s="57"/>
+      <c r="BE51" s="58"/>
+      <c r="BF51" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="BG51" s="67"/>
-      <c r="BH51" s="67"/>
-      <c r="BI51" s="67"/>
-      <c r="BJ51" s="67"/>
-      <c r="BK51" s="67"/>
-      <c r="BL51" s="67"/>
-      <c r="BM51" s="67"/>
-      <c r="BN51" s="67"/>
-      <c r="BO51" s="67"/>
-      <c r="BP51" s="66" t="s">
+      <c r="BG51" s="60"/>
+      <c r="BH51" s="60"/>
+      <c r="BI51" s="60"/>
+      <c r="BJ51" s="60"/>
+      <c r="BK51" s="60"/>
+      <c r="BL51" s="60"/>
+      <c r="BM51" s="60"/>
+      <c r="BN51" s="60"/>
+      <c r="BO51" s="60"/>
+      <c r="BP51" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BQ51" s="67"/>
-      <c r="BR51" s="67"/>
-      <c r="BS51" s="67"/>
-      <c r="BT51" s="67"/>
-      <c r="BU51" s="67"/>
-      <c r="BV51" s="67"/>
-      <c r="BW51" s="67"/>
-      <c r="BX51" s="67"/>
-      <c r="BY51" s="67"/>
-      <c r="BZ51" s="67"/>
-      <c r="CA51" s="67"/>
-      <c r="CB51" s="67"/>
-      <c r="CC51" s="67"/>
-      <c r="CD51" s="67"/>
-      <c r="CE51" s="59" t="s">
+      <c r="BQ51" s="60"/>
+      <c r="BR51" s="60"/>
+      <c r="BS51" s="60"/>
+      <c r="BT51" s="60"/>
+      <c r="BU51" s="60"/>
+      <c r="BV51" s="60"/>
+      <c r="BW51" s="60"/>
+      <c r="BX51" s="60"/>
+      <c r="BY51" s="60"/>
+      <c r="BZ51" s="60"/>
+      <c r="CA51" s="60"/>
+      <c r="CB51" s="60"/>
+      <c r="CC51" s="60"/>
+      <c r="CD51" s="60"/>
+      <c r="CE51" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF51" s="58" t="s">
+      <c r="CF51" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG51" s="68" t="s">
+      <c r="CG51" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH51" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI51" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ51" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="52" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="56" t="s">
+    <row r="52" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="58" t="s">
+      <c r="C52" s="65"/>
+      <c r="D52" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59" t="s">
+      <c r="E52" s="62"/>
+      <c r="F52" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="59" t="s">
+      <c r="G52" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58">
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62">
         <v>1</v>
       </c>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58">
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62">
         <v>1</v>
       </c>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58">
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62">
         <v>3</v>
       </c>
-      <c r="R52" s="58"/>
-      <c r="S52" s="60" t="s">
+      <c r="R52" s="62"/>
+      <c r="S52" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T52" s="61" t="s">
+      <c r="T52" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U52" s="61" t="s">
+      <c r="U52" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V52" s="61" t="s">
+      <c r="V52" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W52" s="61" t="s">
+      <c r="W52" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X52" s="62" t="s">
+      <c r="X52" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y52" s="63" t="s">
+      <c r="Y52" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="64"/>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="64"/>
-      <c r="AD52" s="64"/>
-      <c r="AE52" s="64"/>
-      <c r="AF52" s="64"/>
-      <c r="AG52" s="64"/>
-      <c r="AH52" s="64"/>
-      <c r="AI52" s="64"/>
-      <c r="AJ52" s="64"/>
-      <c r="AK52" s="64"/>
-      <c r="AL52" s="64"/>
-      <c r="AM52" s="64"/>
-      <c r="AN52" s="64"/>
-      <c r="AO52" s="65"/>
+      <c r="Z52" s="67"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="67"/>
+      <c r="AC52" s="67"/>
+      <c r="AD52" s="67"/>
+      <c r="AE52" s="67"/>
+      <c r="AF52" s="67"/>
+      <c r="AG52" s="67"/>
+      <c r="AH52" s="67"/>
+      <c r="AI52" s="67"/>
+      <c r="AJ52" s="67"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="67"/>
+      <c r="AM52" s="67"/>
+      <c r="AN52" s="67"/>
+      <c r="AO52" s="68"/>
       <c r="AP52" s="47" t="s">
         <v>62</v>
       </c>
@@ -19988,125 +20077,134 @@
       <c r="AX52" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY52" s="60" t="s">
+      <c r="AY52" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ52" s="61"/>
-      <c r="BA52" s="61"/>
-      <c r="BB52" s="61"/>
-      <c r="BC52" s="61"/>
-      <c r="BD52" s="61"/>
-      <c r="BE52" s="62"/>
-      <c r="BF52" s="66" t="s">
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="58"/>
+      <c r="BF52" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="BG52" s="67"/>
-      <c r="BH52" s="67"/>
-      <c r="BI52" s="67"/>
-      <c r="BJ52" s="67"/>
-      <c r="BK52" s="67"/>
-      <c r="BL52" s="67"/>
-      <c r="BM52" s="67"/>
-      <c r="BN52" s="67"/>
-      <c r="BO52" s="67"/>
-      <c r="BP52" s="66" t="s">
+      <c r="BG52" s="60"/>
+      <c r="BH52" s="60"/>
+      <c r="BI52" s="60"/>
+      <c r="BJ52" s="60"/>
+      <c r="BK52" s="60"/>
+      <c r="BL52" s="60"/>
+      <c r="BM52" s="60"/>
+      <c r="BN52" s="60"/>
+      <c r="BO52" s="60"/>
+      <c r="BP52" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="BQ52" s="67"/>
-      <c r="BR52" s="67"/>
-      <c r="BS52" s="67"/>
-      <c r="BT52" s="67"/>
-      <c r="BU52" s="67"/>
-      <c r="BV52" s="67"/>
-      <c r="BW52" s="67"/>
-      <c r="BX52" s="67"/>
-      <c r="BY52" s="67"/>
-      <c r="BZ52" s="67"/>
-      <c r="CA52" s="67"/>
-      <c r="CB52" s="67"/>
-      <c r="CC52" s="67"/>
-      <c r="CD52" s="67"/>
-      <c r="CE52" s="59" t="s">
+      <c r="BQ52" s="60"/>
+      <c r="BR52" s="60"/>
+      <c r="BS52" s="60"/>
+      <c r="BT52" s="60"/>
+      <c r="BU52" s="60"/>
+      <c r="BV52" s="60"/>
+      <c r="BW52" s="60"/>
+      <c r="BX52" s="60"/>
+      <c r="BY52" s="60"/>
+      <c r="BZ52" s="60"/>
+      <c r="CA52" s="60"/>
+      <c r="CB52" s="60"/>
+      <c r="CC52" s="60"/>
+      <c r="CD52" s="60"/>
+      <c r="CE52" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF52" s="58" t="s">
+      <c r="CF52" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG52" s="68" t="s">
+      <c r="CG52" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH52" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI52" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ52" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="53" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="56" t="s">
+    <row r="53" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58" t="s">
+      <c r="C53" s="65"/>
+      <c r="D53" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="59" t="s">
+      <c r="E53" s="62"/>
+      <c r="F53" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58">
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62">
         <v>1</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58">
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62">
         <v>1</v>
       </c>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58">
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62">
         <v>3</v>
       </c>
-      <c r="R53" s="58"/>
-      <c r="S53" s="60" t="s">
+      <c r="R53" s="62"/>
+      <c r="S53" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T53" s="61" t="s">
+      <c r="T53" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U53" s="61" t="s">
+      <c r="U53" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V53" s="61" t="s">
+      <c r="V53" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W53" s="61" t="s">
+      <c r="W53" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X53" s="62" t="s">
+      <c r="X53" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y53" s="63" t="s">
+      <c r="Y53" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="Z53" s="64"/>
-      <c r="AA53" s="64"/>
-      <c r="AB53" s="64"/>
-      <c r="AC53" s="64"/>
-      <c r="AD53" s="64"/>
-      <c r="AE53" s="64"/>
-      <c r="AF53" s="64"/>
-      <c r="AG53" s="64"/>
-      <c r="AH53" s="64"/>
-      <c r="AI53" s="64"/>
-      <c r="AJ53" s="64"/>
-      <c r="AK53" s="64"/>
-      <c r="AL53" s="64"/>
-      <c r="AM53" s="64"/>
-      <c r="AN53" s="64"/>
-      <c r="AO53" s="65"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="67"/>
+      <c r="AE53" s="67"/>
+      <c r="AF53" s="67"/>
+      <c r="AG53" s="67"/>
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="67"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="67"/>
+      <c r="AM53" s="67"/>
+      <c r="AN53" s="67"/>
+      <c r="AO53" s="68"/>
       <c r="AP53" s="47" t="s">
         <v>62</v>
       </c>
@@ -20134,125 +20232,134 @@
       <c r="AX53" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY53" s="60" t="s">
+      <c r="AY53" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ53" s="61"/>
-      <c r="BA53" s="61"/>
-      <c r="BB53" s="61"/>
-      <c r="BC53" s="61"/>
-      <c r="BD53" s="61"/>
-      <c r="BE53" s="62"/>
-      <c r="BF53" s="66" t="s">
+      <c r="AZ53" s="57"/>
+      <c r="BA53" s="57"/>
+      <c r="BB53" s="57"/>
+      <c r="BC53" s="57"/>
+      <c r="BD53" s="57"/>
+      <c r="BE53" s="58"/>
+      <c r="BF53" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BG53" s="67"/>
-      <c r="BH53" s="67"/>
-      <c r="BI53" s="67"/>
-      <c r="BJ53" s="67"/>
-      <c r="BK53" s="67"/>
-      <c r="BL53" s="67"/>
-      <c r="BM53" s="67"/>
-      <c r="BN53" s="67"/>
-      <c r="BO53" s="67"/>
-      <c r="BP53" s="66" t="s">
+      <c r="BG53" s="60"/>
+      <c r="BH53" s="60"/>
+      <c r="BI53" s="60"/>
+      <c r="BJ53" s="60"/>
+      <c r="BK53" s="60"/>
+      <c r="BL53" s="60"/>
+      <c r="BM53" s="60"/>
+      <c r="BN53" s="60"/>
+      <c r="BO53" s="60"/>
+      <c r="BP53" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="BQ53" s="67"/>
-      <c r="BR53" s="67"/>
-      <c r="BS53" s="67"/>
-      <c r="BT53" s="67"/>
-      <c r="BU53" s="67"/>
-      <c r="BV53" s="67"/>
-      <c r="BW53" s="67"/>
-      <c r="BX53" s="67"/>
-      <c r="BY53" s="67"/>
-      <c r="BZ53" s="67"/>
-      <c r="CA53" s="67"/>
-      <c r="CB53" s="67"/>
-      <c r="CC53" s="67"/>
-      <c r="CD53" s="67"/>
-      <c r="CE53" s="59" t="s">
+      <c r="BQ53" s="60"/>
+      <c r="BR53" s="60"/>
+      <c r="BS53" s="60"/>
+      <c r="BT53" s="60"/>
+      <c r="BU53" s="60"/>
+      <c r="BV53" s="60"/>
+      <c r="BW53" s="60"/>
+      <c r="BX53" s="60"/>
+      <c r="BY53" s="60"/>
+      <c r="BZ53" s="60"/>
+      <c r="CA53" s="60"/>
+      <c r="CB53" s="60"/>
+      <c r="CC53" s="60"/>
+      <c r="CD53" s="60"/>
+      <c r="CE53" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF53" s="58" t="s">
+      <c r="CF53" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG53" s="68" t="s">
+      <c r="CG53" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH53" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI53" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ53" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="54" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="56" t="s">
+    <row r="54" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="65"/>
+      <c r="D54" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="59" t="s">
+      <c r="E54" s="62"/>
+      <c r="F54" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="59" t="s">
+      <c r="G54" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58">
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62">
         <v>1</v>
       </c>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58">
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62">
         <v>1</v>
       </c>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58">
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62">
         <v>3</v>
       </c>
-      <c r="R54" s="58"/>
-      <c r="S54" s="60" t="s">
+      <c r="R54" s="62"/>
+      <c r="S54" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T54" s="61" t="s">
+      <c r="T54" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U54" s="61" t="s">
+      <c r="U54" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V54" s="61" t="s">
+      <c r="V54" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W54" s="61" t="s">
+      <c r="W54" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X54" s="62" t="s">
+      <c r="X54" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y54" s="63" t="s">
+      <c r="Y54" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="Z54" s="64"/>
-      <c r="AA54" s="64"/>
-      <c r="AB54" s="64"/>
-      <c r="AC54" s="64"/>
-      <c r="AD54" s="64"/>
-      <c r="AE54" s="64"/>
-      <c r="AF54" s="64"/>
-      <c r="AG54" s="64"/>
-      <c r="AH54" s="64"/>
-      <c r="AI54" s="64"/>
-      <c r="AJ54" s="64"/>
-      <c r="AK54" s="64"/>
-      <c r="AL54" s="64"/>
-      <c r="AM54" s="64"/>
-      <c r="AN54" s="64"/>
-      <c r="AO54" s="65"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="67"/>
+      <c r="AE54" s="67"/>
+      <c r="AF54" s="67"/>
+      <c r="AG54" s="67"/>
+      <c r="AH54" s="67"/>
+      <c r="AI54" s="67"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="67"/>
+      <c r="AL54" s="67"/>
+      <c r="AM54" s="67"/>
+      <c r="AN54" s="67"/>
+      <c r="AO54" s="68"/>
       <c r="AP54" s="47" t="s">
         <v>62</v>
       </c>
@@ -20280,125 +20387,134 @@
       <c r="AX54" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY54" s="60" t="s">
+      <c r="AY54" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ54" s="61"/>
-      <c r="BA54" s="61"/>
-      <c r="BB54" s="61"/>
-      <c r="BC54" s="61"/>
-      <c r="BD54" s="61"/>
-      <c r="BE54" s="62"/>
-      <c r="BF54" s="66" t="s">
+      <c r="AZ54" s="57"/>
+      <c r="BA54" s="57"/>
+      <c r="BB54" s="57"/>
+      <c r="BC54" s="57"/>
+      <c r="BD54" s="57"/>
+      <c r="BE54" s="58"/>
+      <c r="BF54" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BG54" s="67"/>
-      <c r="BH54" s="67"/>
-      <c r="BI54" s="67"/>
-      <c r="BJ54" s="67"/>
-      <c r="BK54" s="67"/>
-      <c r="BL54" s="67"/>
-      <c r="BM54" s="67"/>
-      <c r="BN54" s="67"/>
-      <c r="BO54" s="67"/>
-      <c r="BP54" s="66" t="s">
+      <c r="BG54" s="60"/>
+      <c r="BH54" s="60"/>
+      <c r="BI54" s="60"/>
+      <c r="BJ54" s="60"/>
+      <c r="BK54" s="60"/>
+      <c r="BL54" s="60"/>
+      <c r="BM54" s="60"/>
+      <c r="BN54" s="60"/>
+      <c r="BO54" s="60"/>
+      <c r="BP54" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="BQ54" s="67"/>
-      <c r="BR54" s="67"/>
-      <c r="BS54" s="67"/>
-      <c r="BT54" s="67"/>
-      <c r="BU54" s="67"/>
-      <c r="BV54" s="67"/>
-      <c r="BW54" s="67"/>
-      <c r="BX54" s="67"/>
-      <c r="BY54" s="67"/>
-      <c r="BZ54" s="67"/>
-      <c r="CA54" s="67"/>
-      <c r="CB54" s="67"/>
-      <c r="CC54" s="67"/>
-      <c r="CD54" s="67"/>
-      <c r="CE54" s="59" t="s">
+      <c r="BQ54" s="60"/>
+      <c r="BR54" s="60"/>
+      <c r="BS54" s="60"/>
+      <c r="BT54" s="60"/>
+      <c r="BU54" s="60"/>
+      <c r="BV54" s="60"/>
+      <c r="BW54" s="60"/>
+      <c r="BX54" s="60"/>
+      <c r="BY54" s="60"/>
+      <c r="BZ54" s="60"/>
+      <c r="CA54" s="60"/>
+      <c r="CB54" s="60"/>
+      <c r="CC54" s="60"/>
+      <c r="CD54" s="60"/>
+      <c r="CE54" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF54" s="58" t="s">
+      <c r="CF54" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG54" s="68" t="s">
+      <c r="CG54" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH54" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI54" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ54" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="55" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="56" t="s">
+    <row r="55" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="59" t="s">
+      <c r="E55" s="62"/>
+      <c r="F55" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="59" t="s">
+      <c r="G55" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58">
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62">
         <v>1</v>
       </c>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58">
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62">
         <v>1</v>
       </c>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58">
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62">
         <v>3</v>
       </c>
-      <c r="R55" s="58"/>
-      <c r="S55" s="60" t="s">
+      <c r="R55" s="62"/>
+      <c r="S55" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T55" s="61" t="s">
+      <c r="T55" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U55" s="61" t="s">
+      <c r="U55" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V55" s="61" t="s">
+      <c r="V55" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W55" s="61" t="s">
+      <c r="W55" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X55" s="62" t="s">
+      <c r="X55" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y55" s="63" t="s">
+      <c r="Y55" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="Z55" s="64"/>
-      <c r="AA55" s="64"/>
-      <c r="AB55" s="64"/>
-      <c r="AC55" s="64"/>
-      <c r="AD55" s="64"/>
-      <c r="AE55" s="64"/>
-      <c r="AF55" s="64"/>
-      <c r="AG55" s="64"/>
-      <c r="AH55" s="64"/>
-      <c r="AI55" s="64"/>
-      <c r="AJ55" s="64"/>
-      <c r="AK55" s="64"/>
-      <c r="AL55" s="64"/>
-      <c r="AM55" s="64"/>
-      <c r="AN55" s="64"/>
-      <c r="AO55" s="65"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="67"/>
+      <c r="AD55" s="67"/>
+      <c r="AE55" s="67"/>
+      <c r="AF55" s="67"/>
+      <c r="AG55" s="67"/>
+      <c r="AH55" s="67"/>
+      <c r="AI55" s="67"/>
+      <c r="AJ55" s="67"/>
+      <c r="AK55" s="67"/>
+      <c r="AL55" s="67"/>
+      <c r="AM55" s="67"/>
+      <c r="AN55" s="67"/>
+      <c r="AO55" s="68"/>
       <c r="AP55" s="47" t="s">
         <v>62</v>
       </c>
@@ -20426,125 +20542,134 @@
       <c r="AX55" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY55" s="60" t="s">
+      <c r="AY55" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ55" s="61"/>
-      <c r="BA55" s="61"/>
-      <c r="BB55" s="61"/>
-      <c r="BC55" s="61"/>
-      <c r="BD55" s="61"/>
-      <c r="BE55" s="62"/>
-      <c r="BF55" s="66" t="s">
+      <c r="AZ55" s="57"/>
+      <c r="BA55" s="57"/>
+      <c r="BB55" s="57"/>
+      <c r="BC55" s="57"/>
+      <c r="BD55" s="57"/>
+      <c r="BE55" s="58"/>
+      <c r="BF55" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BG55" s="67"/>
-      <c r="BH55" s="67"/>
-      <c r="BI55" s="67"/>
-      <c r="BJ55" s="67"/>
-      <c r="BK55" s="67"/>
-      <c r="BL55" s="67"/>
-      <c r="BM55" s="67"/>
-      <c r="BN55" s="67"/>
-      <c r="BO55" s="67"/>
-      <c r="BP55" s="66" t="s">
+      <c r="BG55" s="60"/>
+      <c r="BH55" s="60"/>
+      <c r="BI55" s="60"/>
+      <c r="BJ55" s="60"/>
+      <c r="BK55" s="60"/>
+      <c r="BL55" s="60"/>
+      <c r="BM55" s="60"/>
+      <c r="BN55" s="60"/>
+      <c r="BO55" s="60"/>
+      <c r="BP55" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="BQ55" s="67"/>
-      <c r="BR55" s="67"/>
-      <c r="BS55" s="67"/>
-      <c r="BT55" s="67"/>
-      <c r="BU55" s="67"/>
-      <c r="BV55" s="67"/>
-      <c r="BW55" s="67"/>
-      <c r="BX55" s="67"/>
-      <c r="BY55" s="67"/>
-      <c r="BZ55" s="67"/>
-      <c r="CA55" s="67"/>
-      <c r="CB55" s="67"/>
-      <c r="CC55" s="67"/>
-      <c r="CD55" s="67"/>
-      <c r="CE55" s="59" t="s">
+      <c r="BQ55" s="60"/>
+      <c r="BR55" s="60"/>
+      <c r="BS55" s="60"/>
+      <c r="BT55" s="60"/>
+      <c r="BU55" s="60"/>
+      <c r="BV55" s="60"/>
+      <c r="BW55" s="60"/>
+      <c r="BX55" s="60"/>
+      <c r="BY55" s="60"/>
+      <c r="BZ55" s="60"/>
+      <c r="CA55" s="60"/>
+      <c r="CB55" s="60"/>
+      <c r="CC55" s="60"/>
+      <c r="CD55" s="60"/>
+      <c r="CE55" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF55" s="58" t="s">
+      <c r="CF55" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG55" s="68" t="s">
+      <c r="CG55" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH55" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI55" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ55" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="56" t="s">
+    <row r="56" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="58" t="s">
+      <c r="C56" s="65"/>
+      <c r="D56" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="59" t="s">
+      <c r="E56" s="62"/>
+      <c r="F56" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G56" s="59" t="s">
+      <c r="G56" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H56" s="58" t="s">
+      <c r="H56" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58">
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62">
         <v>1</v>
       </c>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58">
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62">
         <v>1</v>
       </c>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58">
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62">
         <v>3</v>
       </c>
-      <c r="R56" s="58"/>
-      <c r="S56" s="60" t="s">
+      <c r="R56" s="62"/>
+      <c r="S56" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T56" s="61" t="s">
+      <c r="T56" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U56" s="61" t="s">
+      <c r="U56" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V56" s="61" t="s">
+      <c r="V56" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W56" s="61" t="s">
+      <c r="W56" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X56" s="62" t="s">
+      <c r="X56" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y56" s="63" t="s">
+      <c r="Y56" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="Z56" s="64"/>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="64"/>
-      <c r="AC56" s="64"/>
-      <c r="AD56" s="64"/>
-      <c r="AE56" s="64"/>
-      <c r="AF56" s="64"/>
-      <c r="AG56" s="64"/>
-      <c r="AH56" s="64"/>
-      <c r="AI56" s="64"/>
-      <c r="AJ56" s="64"/>
-      <c r="AK56" s="64"/>
-      <c r="AL56" s="64"/>
-      <c r="AM56" s="64"/>
-      <c r="AN56" s="64"/>
-      <c r="AO56" s="65"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
+      <c r="AE56" s="67"/>
+      <c r="AF56" s="67"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="67"/>
+      <c r="AM56" s="67"/>
+      <c r="AN56" s="67"/>
+      <c r="AO56" s="68"/>
       <c r="AP56" s="47" t="s">
         <v>62</v>
       </c>
@@ -20572,125 +20697,134 @@
       <c r="AX56" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY56" s="60" t="s">
+      <c r="AY56" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ56" s="61"/>
-      <c r="BA56" s="61"/>
-      <c r="BB56" s="61"/>
-      <c r="BC56" s="61"/>
-      <c r="BD56" s="61"/>
-      <c r="BE56" s="62"/>
-      <c r="BF56" s="66" t="s">
+      <c r="AZ56" s="57"/>
+      <c r="BA56" s="57"/>
+      <c r="BB56" s="57"/>
+      <c r="BC56" s="57"/>
+      <c r="BD56" s="57"/>
+      <c r="BE56" s="58"/>
+      <c r="BF56" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BG56" s="67"/>
-      <c r="BH56" s="67"/>
-      <c r="BI56" s="67"/>
-      <c r="BJ56" s="67"/>
-      <c r="BK56" s="67"/>
-      <c r="BL56" s="67"/>
-      <c r="BM56" s="67"/>
-      <c r="BN56" s="67"/>
-      <c r="BO56" s="67"/>
-      <c r="BP56" s="66" t="s">
+      <c r="BG56" s="60"/>
+      <c r="BH56" s="60"/>
+      <c r="BI56" s="60"/>
+      <c r="BJ56" s="60"/>
+      <c r="BK56" s="60"/>
+      <c r="BL56" s="60"/>
+      <c r="BM56" s="60"/>
+      <c r="BN56" s="60"/>
+      <c r="BO56" s="60"/>
+      <c r="BP56" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="BQ56" s="67"/>
-      <c r="BR56" s="67"/>
-      <c r="BS56" s="67"/>
-      <c r="BT56" s="67"/>
-      <c r="BU56" s="67"/>
-      <c r="BV56" s="67"/>
-      <c r="BW56" s="67"/>
-      <c r="BX56" s="67"/>
-      <c r="BY56" s="67"/>
-      <c r="BZ56" s="67"/>
-      <c r="CA56" s="67"/>
-      <c r="CB56" s="67"/>
-      <c r="CC56" s="67"/>
-      <c r="CD56" s="67"/>
-      <c r="CE56" s="59" t="s">
+      <c r="BQ56" s="60"/>
+      <c r="BR56" s="60"/>
+      <c r="BS56" s="60"/>
+      <c r="BT56" s="60"/>
+      <c r="BU56" s="60"/>
+      <c r="BV56" s="60"/>
+      <c r="BW56" s="60"/>
+      <c r="BX56" s="60"/>
+      <c r="BY56" s="60"/>
+      <c r="BZ56" s="60"/>
+      <c r="CA56" s="60"/>
+      <c r="CB56" s="60"/>
+      <c r="CC56" s="60"/>
+      <c r="CD56" s="60"/>
+      <c r="CE56" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF56" s="58" t="s">
+      <c r="CF56" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG56" s="68" t="s">
+      <c r="CG56" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH56" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI56" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ56" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="57" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="56" t="s">
+    <row r="57" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="58" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="59" t="s">
+      <c r="E57" s="62"/>
+      <c r="F57" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="59" t="s">
+      <c r="G57" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H57" s="58" t="s">
+      <c r="H57" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58">
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62">
         <v>1</v>
       </c>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58">
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62">
         <v>1</v>
       </c>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58">
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62">
         <v>3</v>
       </c>
-      <c r="R57" s="58"/>
-      <c r="S57" s="60" t="s">
+      <c r="R57" s="62"/>
+      <c r="S57" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T57" s="61" t="s">
+      <c r="T57" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U57" s="61" t="s">
+      <c r="U57" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V57" s="61" t="s">
+      <c r="V57" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W57" s="61" t="s">
+      <c r="W57" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X57" s="62" t="s">
+      <c r="X57" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y57" s="63" t="s">
+      <c r="Y57" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="Z57" s="64"/>
-      <c r="AA57" s="64"/>
-      <c r="AB57" s="64"/>
-      <c r="AC57" s="64"/>
-      <c r="AD57" s="64"/>
-      <c r="AE57" s="64"/>
-      <c r="AF57" s="64"/>
-      <c r="AG57" s="64"/>
-      <c r="AH57" s="64"/>
-      <c r="AI57" s="64"/>
-      <c r="AJ57" s="64"/>
-      <c r="AK57" s="64"/>
-      <c r="AL57" s="64"/>
-      <c r="AM57" s="64"/>
-      <c r="AN57" s="64"/>
-      <c r="AO57" s="65"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
+      <c r="AE57" s="67"/>
+      <c r="AF57" s="67"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="67"/>
+      <c r="AM57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AO57" s="68"/>
       <c r="AP57" s="47" t="s">
         <v>62</v>
       </c>
@@ -20718,125 +20852,134 @@
       <c r="AX57" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY57" s="60" t="s">
+      <c r="AY57" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ57" s="61"/>
-      <c r="BA57" s="61"/>
-      <c r="BB57" s="61"/>
-      <c r="BC57" s="61"/>
-      <c r="BD57" s="61"/>
-      <c r="BE57" s="62"/>
-      <c r="BF57" s="66" t="s">
+      <c r="AZ57" s="57"/>
+      <c r="BA57" s="57"/>
+      <c r="BB57" s="57"/>
+      <c r="BC57" s="57"/>
+      <c r="BD57" s="57"/>
+      <c r="BE57" s="58"/>
+      <c r="BF57" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BG57" s="67"/>
-      <c r="BH57" s="67"/>
-      <c r="BI57" s="67"/>
-      <c r="BJ57" s="67"/>
-      <c r="BK57" s="67"/>
-      <c r="BL57" s="67"/>
-      <c r="BM57" s="67"/>
-      <c r="BN57" s="67"/>
-      <c r="BO57" s="67"/>
-      <c r="BP57" s="66" t="s">
+      <c r="BG57" s="60"/>
+      <c r="BH57" s="60"/>
+      <c r="BI57" s="60"/>
+      <c r="BJ57" s="60"/>
+      <c r="BK57" s="60"/>
+      <c r="BL57" s="60"/>
+      <c r="BM57" s="60"/>
+      <c r="BN57" s="60"/>
+      <c r="BO57" s="60"/>
+      <c r="BP57" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="BQ57" s="67"/>
-      <c r="BR57" s="67"/>
-      <c r="BS57" s="67"/>
-      <c r="BT57" s="67"/>
-      <c r="BU57" s="67"/>
-      <c r="BV57" s="67"/>
-      <c r="BW57" s="67"/>
-      <c r="BX57" s="67"/>
-      <c r="BY57" s="67"/>
-      <c r="BZ57" s="67"/>
-      <c r="CA57" s="67"/>
-      <c r="CB57" s="67"/>
-      <c r="CC57" s="67"/>
-      <c r="CD57" s="67"/>
-      <c r="CE57" s="59" t="s">
+      <c r="BQ57" s="60"/>
+      <c r="BR57" s="60"/>
+      <c r="BS57" s="60"/>
+      <c r="BT57" s="60"/>
+      <c r="BU57" s="60"/>
+      <c r="BV57" s="60"/>
+      <c r="BW57" s="60"/>
+      <c r="BX57" s="60"/>
+      <c r="BY57" s="60"/>
+      <c r="BZ57" s="60"/>
+      <c r="CA57" s="60"/>
+      <c r="CB57" s="60"/>
+      <c r="CC57" s="60"/>
+      <c r="CD57" s="60"/>
+      <c r="CE57" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF57" s="58" t="s">
+      <c r="CF57" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG57" s="68" t="s">
+      <c r="CG57" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH57" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI57" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ57" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="58" spans="2:85" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="56" t="s">
+    <row r="58" spans="2:89" ht="399.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="58" t="s">
+      <c r="C58" s="65"/>
+      <c r="D58" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="59" t="s">
+      <c r="E58" s="62"/>
+      <c r="F58" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="59" t="s">
+      <c r="G58" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H58" s="58" t="s">
+      <c r="H58" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58">
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62">
         <v>1</v>
       </c>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58">
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62">
         <v>1</v>
       </c>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58">
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62">
         <v>3</v>
       </c>
-      <c r="R58" s="58"/>
-      <c r="S58" s="60" t="s">
+      <c r="R58" s="62"/>
+      <c r="S58" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="T58" s="61" t="s">
+      <c r="T58" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="U58" s="61" t="s">
+      <c r="U58" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="V58" s="61" t="s">
+      <c r="V58" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="W58" s="61" t="s">
+      <c r="W58" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="X58" s="62" t="s">
+      <c r="X58" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="Y58" s="63" t="s">
+      <c r="Y58" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="Z58" s="64"/>
-      <c r="AA58" s="64"/>
-      <c r="AB58" s="64"/>
-      <c r="AC58" s="64"/>
-      <c r="AD58" s="64"/>
-      <c r="AE58" s="64"/>
-      <c r="AF58" s="64"/>
-      <c r="AG58" s="64"/>
-      <c r="AH58" s="64"/>
-      <c r="AI58" s="64"/>
-      <c r="AJ58" s="64"/>
-      <c r="AK58" s="64"/>
-      <c r="AL58" s="64"/>
-      <c r="AM58" s="64"/>
-      <c r="AN58" s="64"/>
-      <c r="AO58" s="65"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
+      <c r="AE58" s="67"/>
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="67"/>
+      <c r="AH58" s="67"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58" s="67"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="67"/>
+      <c r="AM58" s="67"/>
+      <c r="AN58" s="67"/>
+      <c r="AO58" s="68"/>
       <c r="AP58" s="47" t="s">
         <v>62</v>
       </c>
@@ -20864,55 +21007,64 @@
       <c r="AX58" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AY58" s="60" t="s">
+      <c r="AY58" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AZ58" s="61"/>
-      <c r="BA58" s="61"/>
-      <c r="BB58" s="61"/>
-      <c r="BC58" s="61"/>
-      <c r="BD58" s="61"/>
-      <c r="BE58" s="62"/>
-      <c r="BF58" s="66" t="s">
+      <c r="AZ58" s="57"/>
+      <c r="BA58" s="57"/>
+      <c r="BB58" s="57"/>
+      <c r="BC58" s="57"/>
+      <c r="BD58" s="57"/>
+      <c r="BE58" s="58"/>
+      <c r="BF58" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="BG58" s="67"/>
-      <c r="BH58" s="67"/>
-      <c r="BI58" s="67"/>
-      <c r="BJ58" s="67"/>
-      <c r="BK58" s="67"/>
-      <c r="BL58" s="67"/>
-      <c r="BM58" s="67"/>
-      <c r="BN58" s="67"/>
-      <c r="BO58" s="67"/>
-      <c r="BP58" s="66" t="s">
+      <c r="BG58" s="60"/>
+      <c r="BH58" s="60"/>
+      <c r="BI58" s="60"/>
+      <c r="BJ58" s="60"/>
+      <c r="BK58" s="60"/>
+      <c r="BL58" s="60"/>
+      <c r="BM58" s="60"/>
+      <c r="BN58" s="60"/>
+      <c r="BO58" s="60"/>
+      <c r="BP58" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="BQ58" s="67"/>
-      <c r="BR58" s="67"/>
-      <c r="BS58" s="67"/>
-      <c r="BT58" s="67"/>
-      <c r="BU58" s="67"/>
-      <c r="BV58" s="67"/>
-      <c r="BW58" s="67"/>
-      <c r="BX58" s="67"/>
-      <c r="BY58" s="67"/>
-      <c r="BZ58" s="67"/>
-      <c r="CA58" s="67"/>
-      <c r="CB58" s="67"/>
-      <c r="CC58" s="67"/>
-      <c r="CD58" s="67"/>
-      <c r="CE58" s="59" t="s">
+      <c r="BQ58" s="60"/>
+      <c r="BR58" s="60"/>
+      <c r="BS58" s="60"/>
+      <c r="BT58" s="60"/>
+      <c r="BU58" s="60"/>
+      <c r="BV58" s="60"/>
+      <c r="BW58" s="60"/>
+      <c r="BX58" s="60"/>
+      <c r="BY58" s="60"/>
+      <c r="BZ58" s="60"/>
+      <c r="CA58" s="60"/>
+      <c r="CB58" s="60"/>
+      <c r="CC58" s="60"/>
+      <c r="CD58" s="60"/>
+      <c r="CE58" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="CF58" s="58" t="s">
+      <c r="CF58" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG58" s="68" t="s">
+      <c r="CG58" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="CH58" s="176">
+        <v>12</v>
+      </c>
+      <c r="CI58" s="176">
+        <v>6</v>
+      </c>
+      <c r="CJ58" s="176">
+        <v>10</v>
+      </c>
     </row>
-    <row r="59" spans="2:85" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:89" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
       <c r="D59" s="22"/>
@@ -20997,8 +21149,38 @@
       <c r="CE59" s="26"/>
       <c r="CF59" s="22"/>
       <c r="CG59" s="22"/>
+      <c r="CH59">
+        <f>SUM(CH47:CH58)</f>
+        <v>144</v>
+      </c>
+      <c r="CI59">
+        <f t="shared" ref="CI59:CJ59" si="0">SUM(CI47:CI58)</f>
+        <v>72</v>
+      </c>
+      <c r="CJ59">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
     </row>
-    <row r="61" spans="2:85" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:89" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="CH60">
+        <f>CH59/60</f>
+        <v>2.4</v>
+      </c>
+      <c r="CI60">
+        <f>CI59/60</f>
+        <v>1.2</v>
+      </c>
+      <c r="CJ60">
+        <f>CJ59/60</f>
+        <v>2</v>
+      </c>
+      <c r="CK60" s="177">
+        <f>CH60+CI60+CJ60</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -21038,7 +21220,7 @@
       <c r="AM61" s="5"/>
       <c r="AN61" s="5"/>
     </row>
-    <row r="62" spans="2:85" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C62" s="6" t="s">
         <v>63</v>
       </c>
@@ -21081,7 +21263,7 @@
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
     </row>
-    <row r="63" spans="2:85" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C63" s="28">
         <v>1</v>
       </c>
@@ -21129,7 +21311,7 @@
       <c r="AM63" s="5"/>
       <c r="AN63" s="5"/>
     </row>
-    <row r="64" spans="2:85" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:89" x14ac:dyDescent="0.2">
       <c r="C64" s="28">
         <v>2</v>
       </c>
@@ -21747,21 +21929,21 @@
       <c r="AO81" s="5"/>
     </row>
     <row r="82" spans="2:42" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="69"/>
-      <c r="L82" s="69"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="69"/>
-      <c r="O82" s="69"/>
-      <c r="P82" s="69"/>
+      <c r="B82" s="151"/>
+      <c r="C82" s="151"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="151"/>
+      <c r="G82" s="151"/>
+      <c r="H82" s="151"/>
+      <c r="I82" s="151"/>
+      <c r="J82" s="151"/>
+      <c r="K82" s="151"/>
+      <c r="L82" s="151"/>
+      <c r="M82" s="151"/>
+      <c r="N82" s="151"/>
+      <c r="O82" s="151"/>
+      <c r="P82" s="151"/>
       <c r="Z82" s="10" t="s">
         <v>26</v>
       </c>
@@ -21793,18 +21975,18 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="70"/>
-      <c r="O84" s="70"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
+      <c r="F84" s="152"/>
+      <c r="G84" s="152"/>
+      <c r="H84" s="152"/>
+      <c r="I84" s="152"/>
+      <c r="J84" s="152"/>
+      <c r="K84" s="152"/>
+      <c r="L84" s="152"/>
+      <c r="M84" s="152"/>
+      <c r="N84" s="152"/>
+      <c r="O84" s="152"/>
+      <c r="P84" s="152"/>
+      <c r="Q84" s="152"/>
       <c r="AK84" t="s">
         <v>90</v>
       </c>
@@ -21852,41 +22034,187 @@
     </row>
   </sheetData>
   <mergeCells count="240">
-    <mergeCell ref="AQ50:AX50"/>
-    <mergeCell ref="AY50:BE50"/>
-    <mergeCell ref="BF50:BO50"/>
-    <mergeCell ref="BP50:CD50"/>
-    <mergeCell ref="CE50:CG50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y50:AO50"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="Y48:AO48"/>
-    <mergeCell ref="AQ48:AX48"/>
-    <mergeCell ref="AY48:BE48"/>
-    <mergeCell ref="BF48:BO48"/>
-    <mergeCell ref="BP48:CD48"/>
-    <mergeCell ref="CE48:CG48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="Y49:AO49"/>
-    <mergeCell ref="AQ49:AX49"/>
-    <mergeCell ref="AY49:BE49"/>
-    <mergeCell ref="BF49:BO49"/>
-    <mergeCell ref="BP49:CD49"/>
-    <mergeCell ref="CE49:CG49"/>
+    <mergeCell ref="AQ51:AX51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="Y54:AO54"/>
+    <mergeCell ref="AY55:BE55"/>
+    <mergeCell ref="S53:X53"/>
+    <mergeCell ref="Y53:AO53"/>
+    <mergeCell ref="BP52:CD52"/>
+    <mergeCell ref="CE52:CG52"/>
+    <mergeCell ref="AY51:BE51"/>
+    <mergeCell ref="BF51:BO51"/>
+    <mergeCell ref="AQ54:AX54"/>
+    <mergeCell ref="AY54:BE54"/>
+    <mergeCell ref="BF54:BO54"/>
+    <mergeCell ref="BP53:CD53"/>
+    <mergeCell ref="CE53:CG53"/>
+    <mergeCell ref="BP51:CD51"/>
+    <mergeCell ref="CE51:CG51"/>
+    <mergeCell ref="S52:X52"/>
+    <mergeCell ref="Y52:AO52"/>
+    <mergeCell ref="AQ52:AX52"/>
+    <mergeCell ref="AY52:BE52"/>
+    <mergeCell ref="BF52:BO52"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AO51"/>
+    <mergeCell ref="BF55:BO55"/>
+    <mergeCell ref="BP55:CD55"/>
+    <mergeCell ref="CE55:CG55"/>
+    <mergeCell ref="BP54:CD54"/>
+    <mergeCell ref="CE54:CG54"/>
+    <mergeCell ref="AQ53:AX53"/>
+    <mergeCell ref="AY53:BE53"/>
+    <mergeCell ref="BF53:BO53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="Y55:AO55"/>
+    <mergeCell ref="AQ55:AX55"/>
+    <mergeCell ref="AY56:BE56"/>
+    <mergeCell ref="BF56:BO56"/>
+    <mergeCell ref="BP56:CD56"/>
+    <mergeCell ref="CE56:CG56"/>
+    <mergeCell ref="AQ57:AX57"/>
+    <mergeCell ref="AY57:BE57"/>
+    <mergeCell ref="BF57:BO57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="Y56:AO56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="CE58:CG58"/>
+    <mergeCell ref="BP57:CD57"/>
+    <mergeCell ref="CE57:CG57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="Y57:AO57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:X58"/>
+    <mergeCell ref="Y58:AO58"/>
+    <mergeCell ref="AQ58:AX58"/>
+    <mergeCell ref="AY58:BE58"/>
+    <mergeCell ref="BF58:BO58"/>
+    <mergeCell ref="AY47:BE47"/>
+    <mergeCell ref="BF47:BO47"/>
+    <mergeCell ref="BP47:CD47"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="AY46:BE46"/>
+    <mergeCell ref="B82:P82"/>
+    <mergeCell ref="F84:Q84"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="BP58:CD58"/>
+    <mergeCell ref="AQ56:AX56"/>
+    <mergeCell ref="CE47:CG47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="BF46:BO46"/>
+    <mergeCell ref="CE46:CG46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="Y46:AO46"/>
+    <mergeCell ref="AQ46:AX46"/>
+    <mergeCell ref="BP46:CD46"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="Y47:AO47"/>
+    <mergeCell ref="AQ47:AX47"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:AE10"/>
+    <mergeCell ref="AF10:AO10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:AE11"/>
+    <mergeCell ref="AF11:AO11"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:AO15"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:AO29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:AO32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="F30:AO30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:AO31"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:AO27"/>
     <mergeCell ref="B28:E28"/>
@@ -21911,190 +22239,44 @@
     <mergeCell ref="K9:AE9"/>
     <mergeCell ref="AF9:AO9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:AO29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:AO32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="F30:AO30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:AO31"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:AE10"/>
-    <mergeCell ref="AF10:AO10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:AE11"/>
-    <mergeCell ref="AF11:AO11"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:AO15"/>
-    <mergeCell ref="CE47:CG47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="BF46:BO46"/>
-    <mergeCell ref="CE46:CG46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="Y46:AO46"/>
-    <mergeCell ref="AQ46:AX46"/>
-    <mergeCell ref="BP46:CD46"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="Y47:AO47"/>
-    <mergeCell ref="AQ47:AX47"/>
-    <mergeCell ref="AY47:BE47"/>
-    <mergeCell ref="BF47:BO47"/>
-    <mergeCell ref="BP47:CD47"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="AY46:BE46"/>
-    <mergeCell ref="B82:P82"/>
-    <mergeCell ref="F84:Q84"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="BP58:CD58"/>
-    <mergeCell ref="CE58:CG58"/>
-    <mergeCell ref="BP57:CD57"/>
-    <mergeCell ref="CE57:CG57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="Y57:AO57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:X58"/>
-    <mergeCell ref="Y58:AO58"/>
-    <mergeCell ref="AQ58:AX58"/>
-    <mergeCell ref="AY58:BE58"/>
-    <mergeCell ref="BF58:BO58"/>
-    <mergeCell ref="AQ56:AX56"/>
-    <mergeCell ref="AY56:BE56"/>
-    <mergeCell ref="BF56:BO56"/>
-    <mergeCell ref="BP56:CD56"/>
-    <mergeCell ref="CE56:CG56"/>
-    <mergeCell ref="AQ57:AX57"/>
-    <mergeCell ref="AY57:BE57"/>
-    <mergeCell ref="BF57:BO57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:X56"/>
-    <mergeCell ref="Y56:AO56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="BF55:BO55"/>
-    <mergeCell ref="BP55:CD55"/>
-    <mergeCell ref="CE55:CG55"/>
-    <mergeCell ref="BP54:CD54"/>
-    <mergeCell ref="CE54:CG54"/>
-    <mergeCell ref="AQ53:AX53"/>
-    <mergeCell ref="AY53:BE53"/>
-    <mergeCell ref="BF53:BO53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="Y55:AO55"/>
-    <mergeCell ref="AQ55:AX55"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:X54"/>
-    <mergeCell ref="Y54:AO54"/>
-    <mergeCell ref="AY55:BE55"/>
-    <mergeCell ref="S53:X53"/>
-    <mergeCell ref="Y53:AO53"/>
-    <mergeCell ref="BP52:CD52"/>
-    <mergeCell ref="CE52:CG52"/>
-    <mergeCell ref="AY51:BE51"/>
-    <mergeCell ref="BF51:BO51"/>
-    <mergeCell ref="AQ54:AX54"/>
-    <mergeCell ref="AY54:BE54"/>
-    <mergeCell ref="BF54:BO54"/>
-    <mergeCell ref="BP53:CD53"/>
-    <mergeCell ref="CE53:CG53"/>
-    <mergeCell ref="BP51:CD51"/>
-    <mergeCell ref="CE51:CG51"/>
-    <mergeCell ref="S52:X52"/>
-    <mergeCell ref="Y52:AO52"/>
-    <mergeCell ref="AQ52:AX52"/>
-    <mergeCell ref="AY52:BE52"/>
-    <mergeCell ref="BF52:BO52"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AO51"/>
-    <mergeCell ref="AQ51:AX51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="Y48:AO48"/>
+    <mergeCell ref="AQ48:AX48"/>
+    <mergeCell ref="AY48:BE48"/>
+    <mergeCell ref="BF48:BO48"/>
+    <mergeCell ref="BP48:CD48"/>
+    <mergeCell ref="CE48:CG48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="Y49:AO49"/>
+    <mergeCell ref="AQ49:AX49"/>
+    <mergeCell ref="AY49:BE49"/>
+    <mergeCell ref="BF49:BO49"/>
+    <mergeCell ref="BP49:CD49"/>
+    <mergeCell ref="CE49:CG49"/>
+    <mergeCell ref="AQ50:AX50"/>
+    <mergeCell ref="AY50:BE50"/>
+    <mergeCell ref="BF50:BO50"/>
+    <mergeCell ref="BP50:CD50"/>
+    <mergeCell ref="CE50:CG50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y50:AO50"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K59:M59 K47:P58" xr:uid="{2DA89B35-FB80-423A-A21E-D6AD59872CED}">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
@@ -22521,17 +22703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be7cf3a7ed898d7c1d0352d09e31e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b283add90f51ebe902e23405d25ce4b" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -22780,6 +22951,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22790,17 +22972,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D000A95-D232-46B1-B750-F0F858A264CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22819,6 +22990,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
   <ds:schemaRefs>
